--- a/MDO/client-assets/assets/common/user-bulk-creation-upload-sample/user-bulk-upload-sample.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-creation-upload-sample/user-bulk-upload-sample.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOT_NIC\Assets\forked\sunbird-cb-portal-assets\MDO\client-assets\assets\common\user-bulk-creation-upload-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F34EEF-35B4-490A-BB6E-000F3DCF58FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3B9C28-B78C-4DAD-8650-9FD26CFB4932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -594,9 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
